--- a/biology/Zoologie/Rinchen_Barsbold/Rinchen_Barsbold.xlsx
+++ b/biology/Zoologie/Rinchen_Barsbold/Rinchen_Barsbold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rinchen Barsbold (mongol : Ринченгийн Барсболд, Rinchyengiin Barsbold, né le 21 décembre 1935 à Oulan-Bator) est un paléontologue et géologue mongol. Il travaille à l'Institut de géologie à Oulan-Bator, en Mongolie. Il est reconnu à travers le monde comme un grand spécialiste de la paléontologie des Vertébrés et la stratigraphie du Mésozoïque.
 Barsbold a joué un rôle majeur dans la découverte d'une des plus grandes collections de dinosaures dans le monde. Son travail a mis en évidence la paléontologie mongole, et aider à comprendre les dernières étapes de l'évolution des dinosaures en Eurasie.
 Barsbold a eu une influence considérable sur la connaissance des dinosaures dans le monde communiste. Son travail en a fait un expert des théropodes dans le désert de Gobi, notamment sa thèse à ce sujet. Il note dès 1983 que les théropodes partagent divers points communs avec les oiseaux. Ce constat a pris de l'importance avec la découverte de dinosaures portant des plumes dans les années 1990.
-Le nom du genre Barsboldia, dinosaures ornithopodes, a été donné en son honneur[1].
+Le nom du genre Barsboldia, dinosaures ornithopodes, a été donné en son honneur.
 </t>
         </is>
       </c>
